--- a/static/attendance_sheets/cse_attendance.xlsx
+++ b/static/attendance_sheets/cse_attendance.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,6 +622,198 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>12:42:01</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21222</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>12:42:01</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>12:42:33</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21222</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>12:42:33</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>12:43:57</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21222</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>12:43:57</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
